--- a/창공/Youtube_comment_emotion.xlsx
+++ b/창공/Youtube_comment_emotion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ok762\github_io\InternProject\창공\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A2100-B424-4FCC-B935-F775B41BF7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B06F27A-0A50-4F8C-B8BC-9619F9766CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,12 +598,12 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="70.19921875" customWidth="1"/>
+    <col min="1" max="1" width="99" customWidth="1"/>
     <col min="2" max="2" width="23.69921875" customWidth="1"/>
     <col min="3" max="3" width="19.59765625" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
